--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H2">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I2">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J2">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.748888867113614</v>
       </c>
       <c r="Q2">
-        <v>6.013026862636444</v>
+        <v>36.77125647906533</v>
       </c>
       <c r="R2">
-        <v>54.117241763728</v>
+        <v>330.941308311588</v>
       </c>
       <c r="S2">
-        <v>0.06557056933794263</v>
+        <v>0.2769442156917211</v>
       </c>
       <c r="T2">
-        <v>0.06557056933794263</v>
+        <v>0.2769442156917211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H3">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I3">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J3">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.382702</v>
       </c>
       <c r="O3">
-        <v>0.2511111328863859</v>
+        <v>0.251111132886386</v>
       </c>
       <c r="P3">
         <v>0.2511111328863859</v>
       </c>
       <c r="Q3">
-        <v>2.016237727464889</v>
+        <v>12.32982926786267</v>
       </c>
       <c r="R3">
-        <v>18.146139547184</v>
+        <v>110.968463410764</v>
       </c>
       <c r="S3">
-        <v>0.02198657327343886</v>
+        <v>0.09286261126663165</v>
       </c>
       <c r="T3">
-        <v>0.02198657327343886</v>
+        <v>0.09286261126663163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>34.355763</v>
       </c>
       <c r="I4">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J4">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -688,16 +688,16 @@
         <v>0.748888867113614</v>
       </c>
       <c r="Q4">
-        <v>38.50988626583799</v>
+        <v>38.509886265838</v>
       </c>
       <c r="R4">
         <v>346.588976392542</v>
       </c>
       <c r="S4">
-        <v>0.4199407761307197</v>
+        <v>0.2900387767369808</v>
       </c>
       <c r="T4">
-        <v>0.4199407761307196</v>
+        <v>0.2900387767369807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>34.355763</v>
       </c>
       <c r="I5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,7 +744,7 @@
         <v>3.382702</v>
       </c>
       <c r="O5">
-        <v>0.2511111328863859</v>
+        <v>0.251111132886386</v>
       </c>
       <c r="P5">
         <v>0.2511111328863859</v>
@@ -756,10 +756,10 @@
         <v>116.215308211626</v>
       </c>
       <c r="S5">
-        <v>0.1408110183902294</v>
+        <v>0.09725336963295443</v>
       </c>
       <c r="T5">
-        <v>0.1408110183902294</v>
+        <v>0.09725336963295442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.547171</v>
       </c>
       <c r="I6">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J6">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,10 +818,10 @@
         <v>217.372903086014</v>
       </c>
       <c r="S6">
-        <v>0.2633775216449518</v>
+        <v>0.1819058746849123</v>
       </c>
       <c r="T6">
-        <v>0.2633775216449518</v>
+        <v>0.1819058746849123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.547171</v>
       </c>
       <c r="I7">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J7">
-        <v>0.3516910628676694</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.382702</v>
       </c>
       <c r="O7">
-        <v>0.2511111328863859</v>
+        <v>0.251111132886386</v>
       </c>
       <c r="P7">
         <v>0.2511111328863859</v>
       </c>
       <c r="Q7">
-        <v>8.098628715115776</v>
+        <v>8.098628715115778</v>
       </c>
       <c r="R7">
-        <v>72.88765843604199</v>
+        <v>72.887658436042</v>
       </c>
       <c r="S7">
-        <v>0.08831354122271765</v>
+        <v>0.0609951519867999</v>
       </c>
       <c r="T7">
-        <v>0.08831354122271763</v>
+        <v>0.06099515198679988</v>
       </c>
     </row>
   </sheetData>
